--- a/config_hlw/sign_in_config_server_hlw.xlsx
+++ b/config_hlw/sign_in_config_server_hlw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="F6" s="7"/>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_hlw/sign_in_config_server_hlw.xlsx
+++ b/config_hlw/sign_in_config_server_hlw.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight|权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1487,14 +1491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1511,6 +1515,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
@@ -1525,7 +1532,9 @@
       <c r="D2" s="11">
         <v>1000</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
@@ -1540,7 +1549,9 @@
       <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -1555,7 +1566,9 @@
       <c r="D4" s="11">
         <v>1500</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -1570,7 +1583,9 @@
       <c r="D5" s="11">
         <v>2000</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
@@ -1585,7 +1600,9 @@
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
@@ -1600,7 +1617,9 @@
       <c r="D7" s="11">
         <v>2000</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
@@ -1615,7 +1634,9 @@
       <c r="D8" s="11">
         <v>3000</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -1630,6 +1651,9 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
@@ -1644,6 +1668,9 @@
       <c r="D10" s="9">
         <v>2000</v>
       </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -1658,6 +1685,9 @@
       <c r="D11" s="9">
         <v>30</v>
       </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
@@ -1672,6 +1702,9 @@
       <c r="D12" s="9">
         <v>5000</v>
       </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
@@ -1685,6 +1718,9 @@
       </c>
       <c r="D13" s="9">
         <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/sign_in_config_server_hlw.xlsx
+++ b/config_hlw/sign_in_config_server_hlw.xlsx
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +125,10 @@
   </si>
   <si>
     <t>weight|权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>9</v>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11">
         <v>3</v>
@@ -1714,10 +1714,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9">
-        <v>100</v>
+        <v>604800</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>

--- a/config_hlw/sign_in_config_server_hlw.xlsx
+++ b/config_hlw/sign_in_config_server_hlw.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>weight|权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,7 +1488,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,10 +1710,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9">
-        <v>604800</v>
+        <v>100</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
